--- a/output/1Y_P14_1VAL-D.xlsx
+++ b/output/1Y_P14_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>898.1417</v>
       </c>
-      <c r="G2" s="1">
-        <v>898.1417</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1772</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.1341</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1772</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E3" s="1">
+        <v>898.1417</v>
+      </c>
       <c r="F3" s="1">
         <v>916.8928</v>
       </c>
-      <c r="G3" s="1">
-        <v>1815.0346</v>
-      </c>
       <c r="H3" s="1">
-        <v>19692.7622</v>
+        <v>9744.658299999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.0191</v>
+        <v>9744.658299999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.1341</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19692.7622</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0128</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E4" s="1">
+        <v>1815.0346</v>
+      </c>
       <c r="F4" s="1">
         <v>860.0893</v>
       </c>
-      <c r="G4" s="1">
-        <v>2675.1239</v>
-      </c>
       <c r="H4" s="1">
-        <v>30941.2851</v>
+        <v>20993.2344</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11.2144</v>
+        <v>20993.2344</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>11.0191</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30941.2851</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.042</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E5" s="1">
+        <v>2675.1239</v>
+      </c>
       <c r="F5" s="1">
         <v>812.3807</v>
       </c>
-      <c r="G5" s="1">
-        <v>3487.5045</v>
-      </c>
       <c r="H5" s="1">
-        <v>42706.5856</v>
+        <v>32758.4967</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>11.4695</v>
+        <v>32758.4967</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>11.2144</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42706.5856</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0431</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E6" s="1">
+        <v>3487.5045</v>
+      </c>
       <c r="F6" s="1">
         <v>746.9598999999999</v>
       </c>
-      <c r="G6" s="1">
-        <v>4234.4644</v>
-      </c>
       <c r="H6" s="1">
-        <v>56395.4439</v>
+        <v>46447.2829</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>11.8079</v>
+        <v>46447.2829</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>11.4695</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56395.4439</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.07000000000000001</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E7" s="1">
+        <v>4234.4644</v>
+      </c>
       <c r="F7" s="1">
         <v>751.0834</v>
       </c>
-      <c r="G7" s="1">
-        <v>4985.5478</v>
-      </c>
       <c r="H7" s="1">
-        <v>66033.58130000001</v>
+        <v>56085.4811</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>12.0348</v>
+        <v>56085.4811</v>
       </c>
       <c r="K7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>11.8079</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.6</v>
       </c>
-      <c r="L7" s="1">
-        <v>2286.6108</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-7713.3892</v>
+        <v>1883.2525</v>
       </c>
       <c r="O7" s="1">
-        <v>2286.6108</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>68320.192</v>
+        <v>-8116.7475</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.029</v>
+        <v>-0.0064</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E8" s="1">
+        <v>4985.5478</v>
+      </c>
       <c r="F8" s="1">
-        <v>756.596</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5742.1438</v>
+        <v>751.6964</v>
       </c>
       <c r="H8" s="1">
-        <v>78377.96610000001</v>
+        <v>68050.73390000001</v>
       </c>
       <c r="I8" s="1">
-        <v>70381.1018</v>
+        <v>1883.2525</v>
       </c>
       <c r="J8" s="1">
-        <v>12.2569</v>
+        <v>69933.98639999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60313.8754</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>12.0977</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10381.1018</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1905.509</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>80283.4751</v>
+        <v>-10313.8754</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0251</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E9" s="1">
+        <v>5737.2442</v>
+      </c>
       <c r="F9" s="1">
-        <v>730.9554000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6473.0992</v>
+        <v>726.2219</v>
       </c>
       <c r="H9" s="1">
-        <v>91454.5349</v>
+        <v>81058.0811</v>
       </c>
       <c r="I9" s="1">
-        <v>80762.20359999999</v>
+        <v>1569.377</v>
       </c>
       <c r="J9" s="1">
-        <v>12.4766</v>
+        <v>82627.4581</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70627.75079999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>12.3104</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10381.1018</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1524.4072</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>92978.9421</v>
+        <v>-10313.8754</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0299</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E10" s="1">
+        <v>6463.4661</v>
+      </c>
       <c r="F10" s="1">
-        <v>742.1646</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7215.2638</v>
+        <v>737.3585</v>
       </c>
       <c r="H10" s="1">
-        <v>100401.1177</v>
+        <v>89939.7766</v>
       </c>
       <c r="I10" s="1">
-        <v>91143.3054</v>
+        <v>1255.5016</v>
       </c>
       <c r="J10" s="1">
-        <v>12.632</v>
+        <v>91195.2782</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80941.6262</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>12.5229</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10381.1018</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1143.3054</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>101544.4231</v>
+        <v>-10313.8754</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0139</v>
+        <v>-0.0155</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E11" s="1">
+        <v>7200.8245</v>
+      </c>
       <c r="F11" s="1">
-        <v>805.8735</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8021.1374</v>
+        <v>800.6548</v>
       </c>
       <c r="H11" s="1">
-        <v>102790.8754</v>
+        <v>92278.5665</v>
       </c>
       <c r="I11" s="1">
-        <v>101524.4072</v>
+        <v>941.6262</v>
       </c>
       <c r="J11" s="1">
-        <v>12.6571</v>
+        <v>93220.1927</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91255.5016</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>12.6729</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10381.1018</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>762.2036000000001</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103553.079</v>
+        <v>-10313.8754</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0716</v>
+        <v>-0.0788</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E12" s="1">
+        <v>8001.4794</v>
+      </c>
       <c r="F12" s="1">
-        <v>807.8113</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8828.9486</v>
+        <v>802.58</v>
       </c>
       <c r="H12" s="1">
-        <v>112871.0452</v>
+        <v>102292.5126</v>
       </c>
       <c r="I12" s="1">
-        <v>111905.509</v>
+        <v>627.7508</v>
       </c>
       <c r="J12" s="1">
-        <v>12.6748</v>
+        <v>102920.2634</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101569.377</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.6938</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10381.1018</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>381.1018</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113252.147</v>
+        <v>-10313.8754</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0027</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E13" s="1">
+        <v>8804.0594</v>
+      </c>
       <c r="F13" s="1">
-        <v>748.9216</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9577.870199999999</v>
+        <v>744.0717</v>
       </c>
       <c r="H13" s="1">
-        <v>132074.0416</v>
+        <v>121403.5768</v>
       </c>
       <c r="I13" s="1">
-        <v>122286.6108</v>
+        <v>313.8754</v>
       </c>
       <c r="J13" s="1">
-        <v>12.7676</v>
+        <v>121717.4522</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111883.2525</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.7081</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10381.1018</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>132074.0416</v>
+        <v>-10313.8754</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0716</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E14" s="1">
+        <v>9548.131100000001</v>
+      </c>
       <c r="F14" s="1">
-        <v>-9577.870199999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-8804.0594</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>136047.5004</v>
       </c>
       <c r="I14" s="1">
-        <v>122286.6108</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>12.7676</v>
+        <v>136047.5004</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111883.2525</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.7178</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>136471.2418</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>136471.2418</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>136471.2418</v>
+        <v>125445.5204</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0394</v>
+        <v>0.0329</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>11.1341</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>898.1417</v>
       </c>
       <c r="G2" s="1">
-        <v>898.1417</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1772</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.1341</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1772</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>10.9064</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>898.1417</v>
       </c>
       <c r="F3" s="1">
         <v>916.8928</v>
       </c>
       <c r="G3" s="1">
-        <v>1815.0346</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19692.7622</v>
+        <v>9744.658299999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.0191</v>
+        <v>9744.658299999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.1341</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19692.7622</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0128</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>11.6267</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1815.0346</v>
       </c>
       <c r="F4" s="1">
         <v>778.7076</v>
       </c>
       <c r="G4" s="1">
-        <v>2593.7422</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20993.2344</v>
       </c>
       <c r="I4" s="1">
-        <v>29053.7995</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11.2015</v>
+        <v>20993.2344</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19053.7995</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.4978</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9053.799499999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>946.2005</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30946.2005</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0422</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>12.3095</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2593.7422</v>
       </c>
       <c r="F5" s="1">
         <v>672.7372</v>
       </c>
       <c r="G5" s="1">
-        <v>3266.4794</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31761.9291</v>
       </c>
       <c r="I5" s="1">
-        <v>37334.8584</v>
+        <v>946.2005</v>
       </c>
       <c r="J5" s="1">
-        <v>11.4297</v>
+        <v>32708.1296</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27334.8584</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.5388</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8281.0589</v>
       </c>
-      <c r="O5" s="1">
-        <v>2665.1416</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42665.1416</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.042</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>13.3876</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>3266.4794</v>
       </c>
       <c r="F6" s="1">
         <v>487.7817</v>
       </c>
       <c r="G6" s="1">
-        <v>3754.2611</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>43503.6258</v>
       </c>
       <c r="I6" s="1">
-        <v>43865.0846</v>
+        <v>2665.1416</v>
       </c>
       <c r="J6" s="1">
-        <v>11.6841</v>
+        <v>46168.7674</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>33865.0846</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.3675</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-6530.2263</v>
       </c>
-      <c r="O6" s="1">
-        <v>6134.9154</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56134.9154</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0659</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>13.3141</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3754.2611</v>
       </c>
       <c r="F7" s="1">
         <v>775.7501999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>4530.0113</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>49725.1881</v>
       </c>
       <c r="I7" s="1">
-        <v>54193.5009</v>
+        <v>6134.9154</v>
       </c>
       <c r="J7" s="1">
-        <v>11.9632</v>
+        <v>55860.1035</v>
       </c>
       <c r="K7" s="1">
+        <v>44193.5009</v>
+      </c>
+      <c r="L7" s="1">
+        <v>11.7716</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.6</v>
       </c>
-      <c r="L7" s="1">
-        <v>2027.301</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8301.115299999999</v>
+        <v>1763.8989</v>
       </c>
       <c r="O7" s="1">
-        <v>7833.8001</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>67833.80009999999</v>
+        <v>-8564.517400000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0257</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>13.7208</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4530.0113</v>
       </c>
       <c r="F8" s="1">
         <v>598.3441</v>
       </c>
       <c r="G8" s="1">
-        <v>5128.3554</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61832.8426</v>
       </c>
       <c r="I8" s="1">
-        <v>62403.2604</v>
+        <v>7570.398</v>
       </c>
       <c r="J8" s="1">
-        <v>12.1683</v>
+        <v>69403.2406</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>52403.2604</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>11.568</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8209.7595</v>
       </c>
-      <c r="O8" s="1">
-        <v>9624.0406</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79624.04059999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.023</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>14.2021</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>5128.3554</v>
       </c>
       <c r="F9" s="1">
         <v>533.9983999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>5662.3538</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72455.4566</v>
       </c>
       <c r="I9" s="1">
-        <v>69987.15949999999</v>
+        <v>9360.638499999999</v>
       </c>
       <c r="J9" s="1">
-        <v>12.3601</v>
+        <v>81816.09510000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>59987.1595</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>11.6972</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7583.8991</v>
       </c>
-      <c r="O9" s="1">
-        <v>12040.1415</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92040.1415</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.027</v>
+        <v>0.0304</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>13.9876</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5662.3538</v>
       </c>
       <c r="F10" s="1">
         <v>805.4401</v>
       </c>
       <c r="G10" s="1">
-        <v>6467.794</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>78792.2199</v>
       </c>
       <c r="I10" s="1">
-        <v>81253.334</v>
+        <v>11776.7394</v>
       </c>
       <c r="J10" s="1">
-        <v>12.5628</v>
+        <v>90568.9593</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>71253.334</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>12.5837</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11266.1745</v>
       </c>
-      <c r="O10" s="1">
-        <v>10773.967</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100773.967</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0124</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>12.8818</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6467.794</v>
       </c>
       <c r="F11" s="1">
         <v>1335.5615</v>
       </c>
       <c r="G11" s="1">
-        <v>7803.3554</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>82884.7798</v>
       </c>
       <c r="I11" s="1">
-        <v>98457.7696</v>
+        <v>10510.5649</v>
       </c>
       <c r="J11" s="1">
-        <v>12.6174</v>
+        <v>93395.3447</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88457.7696</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.6767</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-17204.4357</v>
       </c>
-      <c r="O11" s="1">
-        <v>3569.5313</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103569.5313</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.065</v>
+        <v>-0.0713</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>12.8509</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7803.3554</v>
       </c>
       <c r="F12" s="1">
         <v>801.0155999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>8604.370999999999</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>99759.65670000001</v>
       </c>
       <c r="I12" s="1">
-        <v>108751.5407</v>
+        <v>3306.1292</v>
       </c>
       <c r="J12" s="1">
-        <v>12.6391</v>
+        <v>103065.7859</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98751.5407</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.655</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10293.7711</v>
       </c>
-      <c r="O12" s="1">
-        <v>3275.7603</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113275.7603</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>13.8614</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>8604.370999999999</v>
       </c>
       <c r="F13" s="1">
         <v>97.9024</v>
       </c>
       <c r="G13" s="1">
-        <v>8702.273499999999</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>118649.9742</v>
       </c>
       <c r="I13" s="1">
-        <v>110108.6057</v>
+        <v>3012.3581</v>
       </c>
       <c r="J13" s="1">
-        <v>12.6529</v>
+        <v>121662.3323</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>100108.6057</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>11.6346</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-1357.065</v>
       </c>
-      <c r="O13" s="1">
-        <v>11918.6953</v>
-      </c>
-      <c r="P13" s="1">
-        <v>131918.6953</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0701</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>14.3229</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8702.273499999999</v>
       </c>
       <c r="F14" s="1">
         <v>-8702.273499999999</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123995.2137</v>
       </c>
       <c r="I14" s="1">
-        <v>110108.6057</v>
+        <v>11655.2931</v>
       </c>
       <c r="J14" s="1">
-        <v>12.6529</v>
+        <v>135650.5069</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>100108.6057</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.5037</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>123995.2137</v>
       </c>
-      <c r="O14" s="1">
-        <v>135913.909</v>
-      </c>
-      <c r="P14" s="1">
-        <v>135913.909</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0423</v>
+        <v>0.0303</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>11.1341</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>898.1417</v>
       </c>
       <c r="G2" s="1">
-        <v>898.1417</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1772</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.1341</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1772</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>10.9064</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>898.1417</v>
       </c>
       <c r="F3" s="1">
         <v>916.8928</v>
       </c>
       <c r="G3" s="1">
-        <v>1815.0346</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19692.7622</v>
+        <v>9744.658299999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.0191</v>
+        <v>9744.658299999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.1341</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19692.7622</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0128</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>11.6267</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1815.0346</v>
       </c>
       <c r="F4" s="1">
         <v>791.6979</v>
       </c>
       <c r="G4" s="1">
-        <v>2606.7325</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20993.2344</v>
       </c>
       <c r="I4" s="1">
-        <v>29204.8341</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11.2036</v>
+        <v>20993.2344</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19204.8341</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.581</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9204.8341</v>
       </c>
-      <c r="O4" s="1">
-        <v>795.1659</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30945.4159</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0422</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>12.3095</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2606.7325</v>
       </c>
       <c r="F5" s="1">
         <v>684.3273</v>
       </c>
       <c r="G5" s="1">
-        <v>3291.0597</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31921.0034</v>
       </c>
       <c r="I5" s="1">
-        <v>37628.5605</v>
+        <v>795.1659</v>
       </c>
       <c r="J5" s="1">
-        <v>11.4336</v>
+        <v>32716.1693</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27628.5605</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.5989</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8423.7264</v>
       </c>
-      <c r="O5" s="1">
-        <v>2371.4395</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42672.4408</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0422</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>13.3876</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>3291.0597</v>
       </c>
       <c r="F6" s="1">
         <v>500.9321</v>
       </c>
       <c r="G6" s="1">
-        <v>3791.9919</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>43830.9919</v>
       </c>
       <c r="I6" s="1">
-        <v>44334.8395</v>
+        <v>2371.4395</v>
       </c>
       <c r="J6" s="1">
-        <v>11.6917</v>
+        <v>46202.4314</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34334.8395</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.4328</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-6706.279</v>
       </c>
-      <c r="O6" s="1">
-        <v>5665.1605</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56167.6668</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0664</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>13.3141</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3791.9919</v>
       </c>
       <c r="F7" s="1">
         <v>795.0235</v>
       </c>
       <c r="G7" s="1">
-        <v>4587.0154</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>50224.9325</v>
       </c>
       <c r="I7" s="1">
-        <v>54919.862</v>
+        <v>5665.1605</v>
       </c>
       <c r="J7" s="1">
-        <v>11.9729</v>
+        <v>55890.0929</v>
       </c>
       <c r="K7" s="1">
+        <v>44919.862</v>
+      </c>
+      <c r="L7" s="1">
+        <v>11.846</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.6</v>
       </c>
-      <c r="L7" s="1">
-        <v>2047.6756</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8537.346799999999</v>
+        <v>1777.1723</v>
       </c>
       <c r="O7" s="1">
-        <v>7127.8137</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>67882.8324</v>
+        <v>-8807.850200000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0259</v>
+        <v>-0.0056</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>13.7208</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4587.0154</v>
       </c>
       <c r="F8" s="1">
         <v>618.9096</v>
       </c>
       <c r="G8" s="1">
-        <v>5205.925</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>62610.9252</v>
       </c>
       <c r="I8" s="1">
-        <v>63411.797</v>
+        <v>6857.3103</v>
       </c>
       <c r="J8" s="1">
-        <v>12.1807</v>
+        <v>69468.2355</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>53411.797</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>11.6441</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8491.934999999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>8635.8786</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79694.6725</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0233</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>14.2021</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>5205.925</v>
       </c>
       <c r="F9" s="1">
         <v>556.5172</v>
       </c>
       <c r="G9" s="1">
-        <v>5762.4422</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>73551.39079999999</v>
       </c>
       <c r="I9" s="1">
-        <v>71315.5094</v>
+        <v>8365.3753</v>
       </c>
       <c r="J9" s="1">
-        <v>12.3759</v>
+        <v>81916.766</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>61315.5094</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>11.778</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7903.7124</v>
       </c>
-      <c r="O9" s="1">
-        <v>10732.1662</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92146.25410000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0273</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>13.9876</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5762.4422</v>
       </c>
       <c r="F10" s="1">
         <v>836.2282</v>
       </c>
       <c r="G10" s="1">
-        <v>6598.6704</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>80184.9589</v>
       </c>
       <c r="I10" s="1">
-        <v>83012.33530000001</v>
+        <v>10461.6629</v>
       </c>
       <c r="J10" s="1">
-        <v>12.5802</v>
+        <v>90646.62179999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>73012.33530000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>12.6704</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11696.8259</v>
       </c>
-      <c r="O10" s="1">
-        <v>9035.3403</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100856.4986</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0126</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>12.8818</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6598.6704</v>
       </c>
       <c r="F11" s="1">
         <v>1382.6222</v>
       </c>
       <c r="G11" s="1">
-        <v>7981.2926</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>84561.961</v>
       </c>
       <c r="I11" s="1">
-        <v>100822.9975</v>
+        <v>8764.837</v>
       </c>
       <c r="J11" s="1">
-        <v>12.6324</v>
+        <v>93326.798</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90822.9975</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.7638</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-17810.6622</v>
       </c>
-      <c r="O11" s="1">
-        <v>1224.6781</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103504.9422</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0663</v>
+        <v>-0.0727</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>12.8509</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7981.2926</v>
       </c>
       <c r="F12" s="1">
         <v>841.4469</v>
       </c>
       <c r="G12" s="1">
-        <v>8822.7394</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>102034.4403</v>
       </c>
       <c r="I12" s="1">
-        <v>111636.3472</v>
+        <v>954.1747</v>
       </c>
       <c r="J12" s="1">
-        <v>12.6533</v>
+        <v>102988.615</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101636.3472</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.7343</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10813.3496</v>
       </c>
-      <c r="O12" s="1">
-        <v>411.3284</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113202.9938</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0027</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>13.8614</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>8822.7394</v>
       </c>
       <c r="F13" s="1">
         <v>122.8803</v>
       </c>
       <c r="G13" s="1">
-        <v>8945.6198</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>121661.1653</v>
       </c>
       <c r="I13" s="1">
-        <v>113339.6406</v>
+        <v>140.8251</v>
       </c>
       <c r="J13" s="1">
-        <v>12.6698</v>
+        <v>121801.9904</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>103339.6406</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>11.7129</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-1703.2935</v>
       </c>
-      <c r="O13" s="1">
-        <v>8708.035</v>
-      </c>
-      <c r="P13" s="1">
-        <v>132063.6587</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.07190000000000001</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>14.3229</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8945.6198</v>
       </c>
       <c r="F14" s="1">
         <v>-8945.6198</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127462.5578</v>
       </c>
       <c r="I14" s="1">
-        <v>113339.6406</v>
+        <v>8437.5316</v>
       </c>
       <c r="J14" s="1">
-        <v>12.6698</v>
+        <v>135900.0894</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>103339.6406</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.552</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127462.5578</v>
       </c>
-      <c r="O14" s="1">
-        <v>136170.5927</v>
-      </c>
-      <c r="P14" s="1">
-        <v>136170.5927</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0415</v>
+        <v>0.0311</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>11.1341</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>898.1417</v>
       </c>
       <c r="G2" s="1">
-        <v>898.1417</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1772</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.1341</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1772</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>10.9064</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>898.1417</v>
       </c>
       <c r="F3" s="1">
         <v>916.8928</v>
       </c>
       <c r="G3" s="1">
-        <v>1815.0346</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19692.7622</v>
+        <v>9744.658299999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.0191</v>
+        <v>9744.658299999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.1341</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19692.7622</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0128</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>11.6267</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1815.0346</v>
       </c>
       <c r="F4" s="1">
         <v>804.7315</v>
       </c>
       <c r="G4" s="1">
-        <v>2619.766</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20993.2344</v>
       </c>
       <c r="I4" s="1">
-        <v>29356.3713</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11.2057</v>
+        <v>20993.2344</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19356.3713</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.6645</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9356.371300000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>643.6287</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30944.6287</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0422</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>12.3095</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2619.766</v>
       </c>
       <c r="F5" s="1">
         <v>696.038</v>
       </c>
       <c r="G5" s="1">
-        <v>3315.804</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>32080.6071</v>
       </c>
       <c r="I5" s="1">
-        <v>37924.2511</v>
+        <v>643.6287</v>
       </c>
       <c r="J5" s="1">
-        <v>11.4374</v>
+        <v>32724.2357</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27924.2511</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.6591</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8567.879800000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>2075.7489</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42679.7589</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0424</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>13.3876</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>3315.804</v>
       </c>
       <c r="F6" s="1">
         <v>514.2969000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>3830.1009</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>44160.5414</v>
       </c>
       <c r="I6" s="1">
-        <v>44809.452</v>
+        <v>2075.7489</v>
       </c>
       <c r="J6" s="1">
-        <v>11.6993</v>
+        <v>46236.2903</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>34809.452</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.498</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-6885.2009</v>
       </c>
-      <c r="O6" s="1">
-        <v>5190.548</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56200.5981</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0668</v>
+        <v>0.0822</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>13.3141</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3830.1009</v>
       </c>
       <c r="F7" s="1">
         <v>814.6821</v>
       </c>
       <c r="G7" s="1">
-        <v>4644.783</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>50729.6867</v>
       </c>
       <c r="I7" s="1">
-        <v>55656.2104</v>
+        <v>5190.548</v>
       </c>
       <c r="J7" s="1">
-        <v>11.9825</v>
+        <v>55920.2347</v>
       </c>
       <c r="K7" s="1">
+        <v>45656.2104</v>
+      </c>
+      <c r="L7" s="1">
+        <v>11.9204</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.6</v>
       </c>
-      <c r="L7" s="1">
-        <v>2068.2545</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-8778.5039</v>
+        <v>1790.5342</v>
       </c>
       <c r="O7" s="1">
-        <v>6412.0441</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>67932.19469999999</v>
+        <v>-9056.224200000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0262</v>
+        <v>-0.0056</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>13.7208</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4644.783</v>
       </c>
       <c r="F8" s="1">
         <v>640.0131</v>
       </c>
       <c r="G8" s="1">
-        <v>5284.796</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63399.4298</v>
       </c>
       <c r="I8" s="1">
-        <v>64437.7016</v>
+        <v>6134.3238</v>
       </c>
       <c r="J8" s="1">
-        <v>12.193</v>
+        <v>69533.7536</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54437.7016</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>11.7202</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8781.4912</v>
       </c>
-      <c r="O8" s="1">
-        <v>7630.5529</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79765.905</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0235</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>14.2021</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5284.796</v>
       </c>
       <c r="F9" s="1">
         <v>579.7538</v>
       </c>
       <c r="G9" s="1">
-        <v>5864.5498</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74665.71249999999</v>
       </c>
       <c r="I9" s="1">
-        <v>72671.4227</v>
+        <v>7352.8325</v>
       </c>
       <c r="J9" s="1">
-        <v>12.3916</v>
+        <v>82018.545</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62671.4227</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>11.8588</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8233.721</v>
       </c>
-      <c r="O9" s="1">
-        <v>9396.8318</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92253.53750000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0277</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>13.9876</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5864.5498</v>
       </c>
       <c r="F10" s="1">
         <v>868.0839999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>6732.6338</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>81605.7972</v>
       </c>
       <c r="I10" s="1">
-        <v>84813.8343</v>
+        <v>9119.111500000001</v>
       </c>
       <c r="J10" s="1">
-        <v>12.5974</v>
+        <v>90724.9087</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74813.8343</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>12.757</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12142.4116</v>
       </c>
-      <c r="O10" s="1">
-        <v>7254.4202</v>
-      </c>
-      <c r="P10" s="1">
-        <v>100939.6929</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0128</v>
+        <v>-0.0141</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>12.8818</v>
       </c>
       <c r="E11" s="1">
+        <v>6732.6338</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1317.8826</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>1339.4417</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8072.0755</v>
-      </c>
       <c r="H11" s="1">
-        <v>103443.6477</v>
+        <v>86278.7022</v>
       </c>
       <c r="I11" s="1">
-        <v>102068.2545</v>
+        <v>6976.6999</v>
       </c>
       <c r="J11" s="1">
-        <v>12.6446</v>
+        <v>93255.40210000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91790.53419999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.6337</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-17254.4202</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103443.6477</v>
+        <v>-16976.6999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.06759999999999999</v>
+        <v>-0.0742</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>12.8509</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>8050.5164</v>
       </c>
       <c r="F12" s="1">
         <v>778.1556</v>
       </c>
       <c r="G12" s="1">
-        <v>8850.231100000001</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>113143.1248</v>
+        <v>102919.4117</v>
       </c>
       <c r="I12" s="1">
-        <v>112068.2545</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>12.6627</v>
+        <v>102919.4117</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101790.5342</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.644</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113143.1248</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0026</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>13.8614</v>
       </c>
       <c r="E13" s="1">
+        <v>8828.672</v>
+      </c>
+      <c r="F13" s="1">
+        <v>368.5454</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>346.9863</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9197.217500000001</v>
-      </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>121742.9727</v>
       </c>
       <c r="I13" s="1">
-        <v>116877.9708</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>12.708</v>
+        <v>121742.9727</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>106899.0901</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.1082</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-4809.7163</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>5190.2837</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>132015.3139</v>
+        <v>-5108.5559</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.07199999999999999</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>14.3229</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9197.217500000001</v>
       </c>
       <c r="F14" s="1">
         <v>-9197.217500000001</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131047.4727</v>
       </c>
       <c r="I14" s="1">
-        <v>116877.9708</v>
+        <v>4891.4441</v>
       </c>
       <c r="J14" s="1">
-        <v>12.708</v>
+        <v>135938.9168</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106899.0901</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.623</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>131047.4727</v>
       </c>
-      <c r="O14" s="1">
-        <v>136237.7564</v>
-      </c>
-      <c r="P14" s="1">
-        <v>136237.7564</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0407</v>
+        <v>0.0318</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>11.1341</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>898.1417</v>
       </c>
       <c r="G2" s="1">
-        <v>898.1417</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1772</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>11.1341</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1772</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>10.9064</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>898.1417</v>
       </c>
       <c r="F3" s="1">
         <v>916.8928</v>
       </c>
       <c r="G3" s="1">
-        <v>1815.0346</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19692.7622</v>
+        <v>9744.658299999999</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11.0191</v>
+        <v>9744.658299999999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>11.1341</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19692.7622</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0128</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>11.6267</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1815.0346</v>
       </c>
       <c r="F4" s="1">
         <v>817.8082000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>2632.8428</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20993.2344</v>
       </c>
       <c r="I4" s="1">
-        <v>29508.4112</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>11.2078</v>
+        <v>20993.2344</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19508.4112</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.7482</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9508.4112</v>
       </c>
-      <c r="O4" s="1">
-        <v>491.5888</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30943.8388</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0421</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>12.3095</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2632.8428</v>
       </c>
       <c r="F5" s="1">
         <v>707.8701</v>
       </c>
       <c r="G5" s="1">
-        <v>3340.7129</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>32240.7401</v>
       </c>
       <c r="I5" s="1">
-        <v>38221.9377</v>
+        <v>491.5888</v>
       </c>
       <c r="J5" s="1">
-        <v>11.4413</v>
+        <v>32732.329</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28221.9377</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.7192</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8713.5265</v>
       </c>
-      <c r="O5" s="1">
-        <v>1778.0623</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42687.0961</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0426</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>13.3876</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>3340.7129</v>
       </c>
       <c r="F6" s="1">
         <v>527.8782</v>
       </c>
       <c r="G6" s="1">
-        <v>3868.591</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>44492.2824</v>
       </c>
       <c r="I6" s="1">
-        <v>45288.9593</v>
+        <v>1778.0623</v>
       </c>
       <c r="J6" s="1">
-        <v>11.7068</v>
+        <v>46270.3447</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35288.9593</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.5633</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7067.0216</v>
       </c>
-      <c r="O6" s="1">
-        <v>4711.0407</v>
-      </c>
-      <c r="P6" s="1">
-        <v>56233.71</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0673</v>
+        <v>0.0828</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>13.3141</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3868.591</v>
       </c>
       <c r="F7" s="1">
         <v>834.7317</v>
       </c>
       <c r="G7" s="1">
-        <v>4703.3227</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>51239.4884</v>
       </c>
       <c r="I7" s="1">
-        <v>56402.6602</v>
+        <v>4711.0407</v>
       </c>
       <c r="J7" s="1">
-        <v>11.9921</v>
+        <v>55950.5291</v>
       </c>
       <c r="K7" s="1">
+        <v>46402.6602</v>
+      </c>
+      <c r="L7" s="1">
+        <v>11.9947</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.6</v>
       </c>
-      <c r="L7" s="1">
-        <v>2089.0392</v>
-      </c>
-      <c r="M7" s="1">
-        <v>10000</v>
-      </c>
       <c r="N7" s="1">
-        <v>-9024.661700000001</v>
+        <v>1803.985</v>
       </c>
       <c r="O7" s="1">
-        <v>5686.379</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>67981.88830000001</v>
+        <v>-9309.715899999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0264</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>13.7208</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4703.3227</v>
       </c>
       <c r="F8" s="1">
         <v>661.6654</v>
       </c>
       <c r="G8" s="1">
-        <v>5364.9881</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>64198.4737</v>
       </c>
       <c r="I8" s="1">
-        <v>65481.239</v>
+        <v>5401.3248</v>
       </c>
       <c r="J8" s="1">
-        <v>12.2053</v>
+        <v>69599.7985</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55481.239</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>11.7962</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9078.578799999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>6607.8002</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79837.7421</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0238</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>14.2021</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5364.9881</v>
       </c>
       <c r="F9" s="1">
         <v>603.7267000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>5968.7149</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>75798.6982</v>
       </c>
       <c r="I9" s="1">
-        <v>74055.4265</v>
+        <v>6322.746</v>
       </c>
       <c r="J9" s="1">
-        <v>12.4073</v>
+        <v>82121.4442</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64055.4265</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>11.9395</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8574.1875</v>
       </c>
-      <c r="O9" s="1">
-        <v>8033.6127</v>
-      </c>
-      <c r="P9" s="1">
-        <v>92362.0037</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0281</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>13.9876</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5968.7149</v>
       </c>
       <c r="F10" s="1">
         <v>901.0394</v>
       </c>
       <c r="G10" s="1">
-        <v>6869.7542</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>83055.26420000001</v>
       </c>
       <c r="I10" s="1">
-        <v>86658.8046</v>
+        <v>7748.5585</v>
       </c>
       <c r="J10" s="1">
-        <v>12.6145</v>
+        <v>90803.8227</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76658.8046</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>12.8434</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12603.3781</v>
       </c>
-      <c r="O10" s="1">
-        <v>5430.2346</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101023.5515</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0131</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>12.8818</v>
       </c>
       <c r="E11" s="1">
+        <v>6869.7542</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1175.7037</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>1197.8322</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8067.5864</v>
-      </c>
       <c r="H11" s="1">
-        <v>103386.1197</v>
+        <v>88035.90029999999</v>
       </c>
       <c r="I11" s="1">
-        <v>102089.0392</v>
+        <v>5145.1804</v>
       </c>
       <c r="J11" s="1">
-        <v>12.6542</v>
+        <v>93181.08070000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91803.985</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.3635</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-15430.2346</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103386.1197</v>
+        <v>-15145.1804</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0688</v>
+        <v>-0.0756</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>12.8509</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>8045.458</v>
       </c>
       <c r="F12" s="1">
         <v>778.1556</v>
       </c>
       <c r="G12" s="1">
-        <v>8845.742</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>113085.7351</v>
+        <v>102854.7436</v>
       </c>
       <c r="I12" s="1">
-        <v>112089.0392</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>12.6715</v>
+        <v>102854.7436</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101803.985</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.6536</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113085.7351</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>13.8614</v>
       </c>
       <c r="E13" s="1">
+        <v>8823.613600000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>633.7354</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>611.607</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9457.349</v>
-      </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>121673.2193</v>
       </c>
       <c r="I13" s="1">
-        <v>120566.7685</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>12.7485</v>
+        <v>121673.2193</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110588.4455</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.5332</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-8477.729300000001</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>1522.2707</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>131934.385</v>
+        <v>-8784.4606</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.07190000000000001</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>14.3229</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9457.349</v>
       </c>
       <c r="F14" s="1">
         <v>-9457.349</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134753.9832</v>
       </c>
       <c r="I14" s="1">
-        <v>120566.7685</v>
+        <v>1215.5394</v>
       </c>
       <c r="J14" s="1">
-        <v>12.7485</v>
+        <v>135969.5227</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110588.4455</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.6934</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>134753.9832</v>
       </c>
-      <c r="O14" s="1">
-        <v>136276.2539</v>
-      </c>
-      <c r="P14" s="1">
-        <v>136276.2539</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0399</v>
+        <v>0.0326</v>
       </c>
     </row>
   </sheetData>
@@ -4478,10 +4451,10 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>14.2843</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.7676</v>
+        <v>11.7178</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6529</v>
+        <v>11.5037</v>
       </c>
       <c r="E3" s="1">
-        <v>12.6698</v>
+        <v>11.552</v>
       </c>
       <c r="F3" s="1">
-        <v>12.708</v>
+        <v>11.623</v>
       </c>
       <c r="G3" s="1">
-        <v>12.7485</v>
+        <v>11.6934</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2674</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1702</v>
+        <v>0.2801</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1607</v>
+        <v>0.271</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1633</v>
+        <v>0.2737</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1643</v>
+        <v>0.2747</v>
       </c>
       <c r="G4" s="3">
-        <v>0.165</v>
+        <v>0.2756</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.161</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1437</v>
+        <v>0.1642</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1375</v>
+        <v>0.1549</v>
       </c>
       <c r="E5" s="3">
-        <v>0.139</v>
+        <v>0.1569</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1398</v>
+        <v>0.1584</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1405</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.535</v>
       </c>
       <c r="C6" s="4">
-        <v>1.0429</v>
+        <v>1.5813</v>
       </c>
       <c r="D6" s="4">
-        <v>1.0207</v>
+        <v>1.6183</v>
       </c>
       <c r="E6" s="4">
-        <v>1.0284</v>
+        <v>1.6148</v>
       </c>
       <c r="F6" s="4">
-        <v>1.0296</v>
+        <v>1.6064</v>
       </c>
       <c r="G6" s="4">
-        <v>1.03</v>
+        <v>1.598</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2656</v>
+        <v>0.0856</v>
       </c>
       <c r="D7" s="3">
-        <v>0.279</v>
+        <v>0.2735</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2781</v>
+        <v>0.2726</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2751</v>
+        <v>0.2693</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2722</v>
+        <v>0.2663</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2286.6108</v>
+        <v>1883.2525</v>
       </c>
       <c r="D8" s="1">
-        <v>2027.301</v>
+        <v>1763.8989</v>
       </c>
       <c r="E8" s="1">
-        <v>2047.6756</v>
+        <v>1777.1723</v>
       </c>
       <c r="F8" s="1">
-        <v>2068.2545</v>
+        <v>1790.5342</v>
       </c>
       <c r="G8" s="1">
-        <v>2089.0392</v>
+        <v>1803.985</v>
       </c>
     </row>
   </sheetData>
